--- a/data/1APIC3.xlsx
+++ b/data/1APIC3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\student performance\student-performance-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4006DAA0-64A0-466C-BF71-238BFF01B7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5AA5F5-CE43-483C-9BE1-DAF363C6AA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{94D425E7-6A28-4E75-BA80-743F151D456E}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
   <si>
-    <t>Etudiant</t>
-  </si>
-  <si>
     <t>sexe</t>
   </si>
   <si>
@@ -39,31 +36,34 @@
     <t>M</t>
   </si>
   <si>
-    <t>Ex 1</t>
+    <t>ID Élève</t>
   </si>
   <si>
-    <t>Ex 2</t>
+    <t>Total Algèbre</t>
   </si>
   <si>
-    <t>Ex 3</t>
+    <t>Total Géométrie</t>
   </si>
   <si>
-    <t>Ex4</t>
+    <t>Total Résolution de Problèmes</t>
   </si>
   <si>
-    <t>Ex 5</t>
+    <t>Exercice 1</t>
   </si>
   <si>
-    <t>Ex 6</t>
+    <t xml:space="preserve">Exercice 3 </t>
   </si>
   <si>
-    <t>TOTAL algebre</t>
+    <t>Exercice 4</t>
   </si>
   <si>
-    <t>TOTAL geomery</t>
+    <t xml:space="preserve">Exercice 6 </t>
   </si>
   <si>
-    <t>TOTAL problem</t>
+    <t>Exercice 5</t>
+  </si>
+  <si>
+    <t>Exercice 2</t>
   </si>
 </sst>
 </file>
@@ -151,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -167,6 +167,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,7 +489,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,39 +500,39 @@
     <col min="11" max="11" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:11" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -537,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5">
         <v>3</v>
@@ -572,7 +575,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5">
         <v>1.5</v>
@@ -607,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -624,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5">
         <v>3.5</v>
@@ -659,7 +662,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="5">
         <v>3.5</v>
@@ -694,7 +697,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -711,7 +714,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="5">
         <v>3.5</v>
@@ -746,7 +749,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="5">
         <v>3.5</v>
@@ -781,7 +784,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="5">
         <v>3.5</v>
@@ -816,7 +819,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="5">
         <v>3.5</v>
@@ -851,7 +854,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="5">
         <v>3.5</v>
@@ -886,7 +889,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -921,7 +924,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="5">
         <v>3.5</v>
@@ -956,7 +959,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="5">
         <v>3.5</v>
@@ -991,7 +994,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="5">
         <v>3.5</v>
@@ -1026,7 +1029,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1043,7 +1046,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="5">
         <v>1.5</v>
@@ -1078,7 +1081,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="5">
         <v>3.5</v>
@@ -1113,7 +1116,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="5">
         <v>3.5</v>
@@ -1148,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="5">
         <v>3.5</v>
@@ -1183,7 +1186,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="5">
         <v>3.5</v>
@@ -1218,7 +1221,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1235,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="5">
         <v>3.5</v>
@@ -1270,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="5">
         <v>3.5</v>
@@ -1305,7 +1308,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="5">
         <v>3.5</v>
@@ -1340,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="5">
         <v>3.5</v>
@@ -1375,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1392,7 +1395,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="5">
         <v>0.5</v>
@@ -1427,7 +1430,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
@@ -1462,7 +1465,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="5">
         <v>3.5</v>
@@ -1497,7 +1500,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
